--- a/data/long_razon/P23_4-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_4-Edad-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-46,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-64,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-65,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>52,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-56,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-20,02%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-78,3; 30,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-91,04; 5,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-86,51; -28,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,86; 294,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-76,55; -20,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-56,69; 46,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-49,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>131,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-26,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-37,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>42,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-83,09; 9,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 467,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-54,55; 33,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,76; 40,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,97; -0,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 155,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-33,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>165,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-13,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>68,22%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-33,54; 83,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-38,12; 81,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-57,3; -3,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>71,07; 303,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,59; 23,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,51; 135,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-24,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,95%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,36; 76,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-55,08; 15,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 65,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 54,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 51,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,6; 21,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -921,32 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-35,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-25,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>58,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-7,46%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-62,35; 2,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-56,11; 18,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 184,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-28,34; 70,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-35,81; 39,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-33,45; 26,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-18,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-9,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-32,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-25,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-60,85; 49,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,55; 47,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-66,42; 31,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 339,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,5; 14,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,73; 109,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-19,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-5,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-18,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>42,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-18,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1119,43 +1345,65 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-36,94; 5,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-26,21; 24,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-32,97; 0,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,92; 75,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-31,2; -3,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,09; 37,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
